--- a/results.xlsx
+++ b/results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramur\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramur\Desktop\ecoop-results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,9 +16,10 @@
     <sheet name="Sheet3" sheetId="7" r:id="rId2"/>
     <sheet name="Analysis_list" sheetId="8" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="9" r:id="rId4"/>
-    <sheet name="Selection-prediction-rate" sheetId="2" r:id="rId5"/>
-    <sheet name="StaticDynamic" sheetId="3" r:id="rId6"/>
-    <sheet name="Live variable - 80million" sheetId="4" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="10" r:id="rId5"/>
+    <sheet name="Selection-prediction-rate" sheetId="2" r:id="rId6"/>
+    <sheet name="StaticDynamic" sheetId="3" r:id="rId7"/>
+    <sheet name="Live variable - 80million" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="126">
   <si>
     <t>Analysis</t>
   </si>
@@ -296,9 +297,6 @@
     <t>SourceForge</t>
   </si>
   <si>
-    <t>DaCapo</t>
-  </si>
-  <si>
     <t>Sequential cfgs</t>
   </si>
   <si>
@@ -317,92 +315,107 @@
     <t>Types of cfgs</t>
   </si>
   <si>
-    <r>
-      <t>branch</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="4"/>
-        <color rgb="FF444444"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t xml:space="preserve"> = 72791</t>
-    </r>
+    <t>Traversal prediction precision (DaCapo)</t>
   </si>
   <si>
-    <r>
-      <t>loop</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="4"/>
-        <color rgb="FF444444"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t xml:space="preserve"> = 27848</t>
-    </r>
+    <t>X</t>
   </si>
   <si>
-    <r>
-      <t>loopBr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="4"/>
-        <color rgb="FF444444"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t xml:space="preserve"> = 20945</t>
-    </r>
+    <t>Dominator (DOM)</t>
   </si>
   <si>
-    <r>
-      <t>loopSeq</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="4"/>
-        <color rgb="FF444444"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t xml:space="preserve"> = 6903</t>
-    </r>
+    <t>Post dominator (PDOM)</t>
   </si>
   <si>
-    <r>
-      <t>q</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="4"/>
-        <color rgb="FF444444"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t xml:space="preserve"> = 91768207592</t>
-    </r>
+    <t>Live variable (LV)</t>
   </si>
   <si>
-    <r>
-      <t>seq</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="4"/>
-        <color rgb="FF444444"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t xml:space="preserve"> = 186249</t>
-    </r>
+    <t>Reaching definition (RD)</t>
   </si>
   <si>
-    <t>Traversal prediction precision (DaCapo)</t>
+    <t>Local may alias (LMA)</t>
+  </si>
+  <si>
+    <t>Local must not alias (LMNA)</t>
+  </si>
+  <si>
+    <t>Available expression (AE)</t>
+  </si>
+  <si>
+    <t>Very busy expression(VBE)</t>
+  </si>
+  <si>
+    <t>Upsafety analysis (USA)</t>
+  </si>
+  <si>
+    <t>Resource status (RS)</t>
+  </si>
+  <si>
+    <t>Nullness analysis (NA)</t>
+  </si>
+  <si>
+    <t>Common sub-expression detection (CSD)</t>
+  </si>
+  <si>
+    <t>Loop invariant code (LIC)</t>
+  </si>
+  <si>
+    <t>Dead code (DC)</t>
+  </si>
+  <si>
+    <t>Copy propagation (CP)</t>
+  </si>
+  <si>
+    <t>Wait not in loop (WNIL)</t>
+  </si>
+  <si>
+    <t>Declaration statement without initialization (DEI)</t>
+  </si>
+  <si>
+    <t>Infinite loop (IL)</t>
+  </si>
+  <si>
+    <t>Useless increment in return (UIR)</t>
+  </si>
+  <si>
+    <t>NO OF TRAVERSALS</t>
+  </si>
+  <si>
+    <t>fixpoint based analysis</t>
+  </si>
+  <si>
+    <t>direction</t>
+  </si>
+  <si>
+    <t>Used and defined variable at each statement (UDV)</t>
+  </si>
+  <si>
+    <t>FORWARD</t>
+  </si>
+  <si>
+    <t>BACKWARD</t>
+  </si>
+  <si>
+    <t>No of traversals</t>
+  </si>
+  <si>
+    <t>involved</t>
+  </si>
+  <si>
+    <t>Traversal</t>
+  </si>
+  <si>
+    <t>Data flow</t>
+  </si>
+  <si>
+    <t>insensitive</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,19 +454,8 @@
       <name val="Wingdings"/>
       <charset val="2"/>
     </font>
-    <font>
-      <sz val="4"/>
-      <color rgb="FF444444"/>
-      <name val="Arial Unicode MS"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="4"/>
-      <color rgb="FF444444"/>
-      <name val="Arial Unicode MS"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -472,8 +474,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -533,11 +541,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -555,47 +576,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -616,6 +602,82 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -62336,21 +62398,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -63880,42 +63942,42 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="23" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="11"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="L3" s="10"/>
+      <c r="A3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="L3" s="23"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="11"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="L4" s="10"/>
+      <c r="A4" s="22"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="L4" s="23"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="11"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="L5" s="10"/>
+      <c r="A5" s="22"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="L5" s="23"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
@@ -63927,7 +63989,7 @@
       <c r="C6" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="5" t="s">
         <v>49</v>
       </c>
@@ -63949,45 +64011,45 @@
       <c r="K6" t="s">
         <v>51</v>
       </c>
-      <c r="L6" s="10"/>
+      <c r="L6" s="23"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="L7" s="23" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="11"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="L8" s="10"/>
+      <c r="A8" s="22"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="L8" s="23"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="11"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="L9" s="10"/>
+      <c r="A9" s="22"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="L9" s="23"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="11"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="L10" s="10"/>
+      <c r="A10" s="22"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="L10" s="23"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
@@ -63999,7 +64061,7 @@
       <c r="C11" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="10"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="5" t="s">
         <v>49</v>
       </c>
@@ -64021,45 +64083,45 @@
       <c r="K11" t="s">
         <v>51</v>
       </c>
-      <c r="L11" s="10"/>
+      <c r="L11" s="23"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="L12" s="23" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="11"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="L13" s="10"/>
+      <c r="A13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="L13" s="23"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="11"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="L14" s="10"/>
+      <c r="A14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="L14" s="23"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="11"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="L15" s="10"/>
+      <c r="A15" s="22"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="L15" s="23"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
@@ -64071,7 +64133,7 @@
       <c r="C16" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="10"/>
+      <c r="D16" s="23"/>
       <c r="E16" s="5" t="s">
         <v>49</v>
       </c>
@@ -64093,51 +64155,51 @@
       <c r="K16" t="s">
         <v>51</v>
       </c>
-      <c r="L16" s="10"/>
+      <c r="L16" s="23"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="I17" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="J17" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="L17" s="10" t="s">
+      <c r="L17" s="23" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="11"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="10"/>
-      <c r="L18" s="10"/>
+      <c r="A18" s="22"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="23"/>
+      <c r="L18" s="23"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="11"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="10"/>
-      <c r="L19" s="10"/>
+      <c r="A19" s="22"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="23"/>
+      <c r="L19" s="23"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="11"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="10"/>
-      <c r="L20" s="10"/>
+      <c r="A20" s="22"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="23"/>
+      <c r="L20" s="23"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
@@ -64149,7 +64211,7 @@
       <c r="C21" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="10"/>
+      <c r="D21" s="23"/>
       <c r="E21" s="5" t="s">
         <v>49</v>
       </c>
@@ -64165,63 +64227,63 @@
       <c r="I21" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J21" s="10"/>
+      <c r="J21" s="23"/>
       <c r="K21" t="s">
         <v>50</v>
       </c>
-      <c r="L21" s="10"/>
+      <c r="L21" s="23"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10" t="s">
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="I22" s="11" t="s">
+      <c r="I22" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="J22" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="L22" s="10" t="s">
+      <c r="L22" s="23" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="11"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="10"/>
-      <c r="L23" s="10"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="23"/>
+      <c r="L23" s="23"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" s="11"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="10"/>
-      <c r="L24" s="10"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="23"/>
+      <c r="L24" s="23"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25" s="11"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="10"/>
-      <c r="L25" s="10"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="23"/>
+      <c r="L25" s="23"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
@@ -64233,7 +64295,7 @@
       <c r="C26" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="10"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="5" t="s">
         <v>49</v>
       </c>
@@ -64249,61 +64311,61 @@
       <c r="I26" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J26" s="10"/>
+      <c r="J26" s="23"/>
       <c r="K26" t="s">
         <v>50</v>
       </c>
-      <c r="L26" s="10"/>
+      <c r="L26" s="23"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="H27" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="I27" s="11" t="s">
+      <c r="I27" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="J27" s="10" t="s">
+      <c r="J27" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="L27" s="10" t="s">
+      <c r="L27" s="23" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A28" s="11"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="11"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="10"/>
-      <c r="L28" s="10"/>
+      <c r="A28" s="22"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="22"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="23"/>
+      <c r="L28" s="23"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A29" s="11"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="11"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="10"/>
-      <c r="L29" s="10"/>
+      <c r="A29" s="22"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="22"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="23"/>
+      <c r="L29" s="23"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A30" s="11"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="11"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="10"/>
-      <c r="L30" s="10"/>
+      <c r="A30" s="22"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="22"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="23"/>
+      <c r="L30" s="23"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
@@ -64315,7 +64377,7 @@
       <c r="C31" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="10"/>
+      <c r="D31" s="23"/>
       <c r="E31" s="5" t="s">
         <v>49</v>
       </c>
@@ -64325,47 +64387,47 @@
       <c r="G31" t="s">
         <v>50</v>
       </c>
-      <c r="H31" s="10"/>
+      <c r="H31" s="23"/>
       <c r="I31" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J31" s="10"/>
+      <c r="J31" s="23"/>
       <c r="K31" t="s">
         <v>50</v>
       </c>
-      <c r="L31" s="10"/>
+      <c r="L31" s="23"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H32" s="10" t="s">
+      <c r="H32" s="23" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="11"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="11"/>
-      <c r="H33" s="10"/>
+      <c r="A33" s="22"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="22"/>
+      <c r="H33" s="23"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="11"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="11"/>
-      <c r="H34" s="10"/>
+      <c r="A34" s="22"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="22"/>
+      <c r="H34" s="23"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="11"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="11"/>
-      <c r="H35" s="10"/>
+      <c r="A35" s="22"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="22"/>
+      <c r="H35" s="23"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
@@ -64377,7 +64439,7 @@
       <c r="C36" t="s">
         <v>51</v>
       </c>
-      <c r="D36" s="10"/>
+      <c r="D36" s="23"/>
       <c r="E36" s="5" t="s">
         <v>49</v>
       </c>
@@ -64387,251 +64449,296 @@
       <c r="G36" t="s">
         <v>50</v>
       </c>
-      <c r="H36" s="10"/>
+      <c r="H36" s="23"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="H37" s="10" t="s">
+      <c r="H37" s="23" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="H38" s="10"/>
+      <c r="H38" s="23"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="H39" s="10"/>
+      <c r="H39" s="23"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="H40" s="10"/>
+      <c r="H40" s="23"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="H41" s="10"/>
+      <c r="H41" s="23"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="H42" s="10" t="s">
+      <c r="H42" s="23" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="H43" s="10"/>
+      <c r="H43" s="23"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="H44" s="10"/>
+      <c r="H44" s="23"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="H45" s="10"/>
+      <c r="H45" s="23"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="H46" s="10"/>
+      <c r="H46" s="23"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="H47" s="10" t="s">
+      <c r="H47" s="23" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="H48" s="10"/>
+      <c r="H48" s="23"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="H49" s="10"/>
+      <c r="H49" s="23"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="H50" s="10"/>
+      <c r="H50" s="23"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="H51" s="10"/>
+      <c r="H51" s="23"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A52" s="11"/>
+      <c r="A52" s="22"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" s="11"/>
+      <c r="A53" s="22"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" s="11"/>
+      <c r="A54" s="22"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A55" s="11"/>
+      <c r="A55" s="22"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="5"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A57" s="11"/>
+      <c r="A57" s="22"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A58" s="11"/>
+      <c r="A58" s="22"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A59" s="11"/>
+      <c r="A59" s="22"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A60" s="11"/>
+      <c r="A60" s="22"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="5"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A62" s="11"/>
+      <c r="A62" s="22"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A63" s="11"/>
+      <c r="A63" s="22"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A64" s="11"/>
+      <c r="A64" s="22"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="11"/>
+      <c r="A65" s="22"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="5"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="11"/>
+      <c r="A67" s="22"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="11"/>
+      <c r="A68" s="22"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="11"/>
+      <c r="A69" s="22"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" s="11"/>
+      <c r="A70" s="22"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="5"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="11"/>
+      <c r="A72" s="22"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" s="11"/>
+      <c r="A73" s="22"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="11"/>
+      <c r="A74" s="22"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" s="11"/>
+      <c r="A75" s="22"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="5"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="11"/>
-      <c r="D77" s="10"/>
+      <c r="A77" s="22"/>
+      <c r="D77" s="23"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" s="11"/>
-      <c r="D78" s="10"/>
+      <c r="A78" s="22"/>
+      <c r="D78" s="23"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" s="11"/>
-      <c r="D79" s="10"/>
+      <c r="A79" s="22"/>
+      <c r="D79" s="23"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" s="11"/>
-      <c r="D80" s="10"/>
+      <c r="A80" s="22"/>
+      <c r="D80" s="23"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="5"/>
-      <c r="D81" s="10"/>
+      <c r="D81" s="23"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" s="11"/>
-      <c r="D82" s="10"/>
+      <c r="A82" s="22"/>
+      <c r="D82" s="23"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" s="11"/>
-      <c r="D83" s="10"/>
+      <c r="A83" s="22"/>
+      <c r="D83" s="23"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" s="11"/>
-      <c r="D84" s="10"/>
+      <c r="A84" s="22"/>
+      <c r="D84" s="23"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" s="11"/>
-      <c r="D85" s="10"/>
+      <c r="A85" s="22"/>
+      <c r="D85" s="23"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="5"/>
-      <c r="D86" s="10"/>
+      <c r="D86" s="23"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87" s="11"/>
-      <c r="B87" s="10"/>
-      <c r="D87" s="10"/>
+      <c r="A87" s="22"/>
+      <c r="B87" s="23"/>
+      <c r="D87" s="23"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88" s="11"/>
-      <c r="B88" s="10"/>
-      <c r="D88" s="10"/>
+      <c r="A88" s="22"/>
+      <c r="B88" s="23"/>
+      <c r="D88" s="23"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89" s="11"/>
-      <c r="B89" s="10"/>
-      <c r="D89" s="10"/>
+      <c r="A89" s="22"/>
+      <c r="B89" s="23"/>
+      <c r="D89" s="23"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A90" s="11"/>
-      <c r="B90" s="10"/>
-      <c r="D90" s="10"/>
+      <c r="A90" s="22"/>
+      <c r="B90" s="23"/>
+      <c r="D90" s="23"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="5"/>
-      <c r="B91" s="10"/>
-      <c r="D91" s="10"/>
+      <c r="B91" s="23"/>
+      <c r="D91" s="23"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92" s="11"/>
-      <c r="B92" s="10"/>
-      <c r="D92" s="10"/>
+      <c r="A92" s="22"/>
+      <c r="B92" s="23"/>
+      <c r="D92" s="23"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A93" s="11"/>
-      <c r="B93" s="10"/>
-      <c r="D93" s="10"/>
+      <c r="A93" s="22"/>
+      <c r="B93" s="23"/>
+      <c r="D93" s="23"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A94" s="11"/>
-      <c r="B94" s="10"/>
-      <c r="D94" s="10"/>
+      <c r="A94" s="22"/>
+      <c r="B94" s="23"/>
+      <c r="D94" s="23"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A95" s="11"/>
-      <c r="B95" s="10"/>
-      <c r="D95" s="10"/>
+      <c r="A95" s="22"/>
+      <c r="B95" s="23"/>
+      <c r="D95" s="23"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="5"/>
-      <c r="B96" s="10"/>
-      <c r="D96" s="10"/>
+      <c r="B96" s="23"/>
+      <c r="D96" s="23"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A97" s="11"/>
-      <c r="B97" s="10"/>
-      <c r="D97" s="10"/>
+      <c r="A97" s="22"/>
+      <c r="B97" s="23"/>
+      <c r="D97" s="23"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A98" s="11"/>
-      <c r="B98" s="10"/>
-      <c r="D98" s="10"/>
+      <c r="A98" s="22"/>
+      <c r="B98" s="23"/>
+      <c r="D98" s="23"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A99" s="11"/>
-      <c r="B99" s="10"/>
-      <c r="D99" s="10"/>
+      <c r="A99" s="22"/>
+      <c r="B99" s="23"/>
+      <c r="D99" s="23"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A100" s="11"/>
-      <c r="B100" s="10"/>
-      <c r="D100" s="10"/>
+      <c r="A100" s="22"/>
+      <c r="B100" s="23"/>
+      <c r="D100" s="23"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="5"/>
-      <c r="B101" s="10"/>
-      <c r="D101" s="10"/>
+      <c r="B101" s="23"/>
+      <c r="D101" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="H47:H51"/>
+    <mergeCell ref="H27:H31"/>
+    <mergeCell ref="J17:J21"/>
+    <mergeCell ref="H37:H41"/>
+    <mergeCell ref="I22:I25"/>
+    <mergeCell ref="J22:J26"/>
+    <mergeCell ref="H42:H46"/>
+    <mergeCell ref="I27:I30"/>
+    <mergeCell ref="J27:J31"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="H32:H36"/>
+    <mergeCell ref="I17:I20"/>
+    <mergeCell ref="D77:D81"/>
+    <mergeCell ref="D82:D86"/>
+    <mergeCell ref="D87:D91"/>
+    <mergeCell ref="D92:D96"/>
+    <mergeCell ref="D97:D101"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="L2:L6"/>
+    <mergeCell ref="L7:L11"/>
+    <mergeCell ref="L12:L16"/>
+    <mergeCell ref="L17:L21"/>
+    <mergeCell ref="L22:L26"/>
+    <mergeCell ref="L27:L31"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="A92:A95"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B97:B101"/>
+    <mergeCell ref="B92:B96"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="E27:E30"/>
     <mergeCell ref="I7:I10"/>
     <mergeCell ref="D2:D6"/>
     <mergeCell ref="A32:A35"/>
@@ -64648,51 +64755,6 @@
     <mergeCell ref="D12:D16"/>
     <mergeCell ref="D17:D21"/>
     <mergeCell ref="D22:D26"/>
-    <mergeCell ref="L27:L31"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="A92:A95"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="B97:B101"/>
-    <mergeCell ref="B92:B96"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="L2:L6"/>
-    <mergeCell ref="L7:L11"/>
-    <mergeCell ref="L12:L16"/>
-    <mergeCell ref="L17:L21"/>
-    <mergeCell ref="L22:L26"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="D77:D81"/>
-    <mergeCell ref="D82:D86"/>
-    <mergeCell ref="D87:D91"/>
-    <mergeCell ref="D92:D96"/>
-    <mergeCell ref="D97:D101"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="H32:H36"/>
-    <mergeCell ref="I17:I20"/>
-    <mergeCell ref="H47:H51"/>
-    <mergeCell ref="H27:H31"/>
-    <mergeCell ref="J17:J21"/>
-    <mergeCell ref="H37:H41"/>
-    <mergeCell ref="I22:I25"/>
-    <mergeCell ref="J22:J26"/>
-    <mergeCell ref="H42:H46"/>
-    <mergeCell ref="I27:I30"/>
-    <mergeCell ref="J27:J31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -64704,8 +64766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:K22"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -64720,57 +64782,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="12" t="s">
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="12"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="2:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="17" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20" t="s">
+      <c r="E3" s="32"/>
+      <c r="F3" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22" t="s">
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D5" s="7"/>
@@ -64791,7 +64853,7 @@
       <c r="B6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="10" t="s">
         <v>61</v>
       </c>
       <c r="D6" s="7"/>
@@ -64812,7 +64874,7 @@
       <c r="B7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="10" t="s">
         <v>62</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -64833,7 +64895,7 @@
       <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="10" t="s">
         <v>63</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -64854,7 +64916,7 @@
       <c r="B9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="10" t="s">
         <v>64</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -64875,7 +64937,7 @@
       <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="10" t="s">
         <v>81</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -64896,7 +64958,7 @@
       <c r="B11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="10" t="s">
         <v>65</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -64917,7 +64979,7 @@
       <c r="B12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="10" t="s">
         <v>66</v>
       </c>
       <c r="D12" s="8" t="s">
@@ -64938,7 +65000,7 @@
       <c r="B13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="10" t="s">
         <v>67</v>
       </c>
       <c r="D13" s="8" t="s">
@@ -64959,7 +65021,7 @@
       <c r="B14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="10" t="s">
         <v>68</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -64980,7 +65042,7 @@
       <c r="B15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="10" t="s">
         <v>69</v>
       </c>
       <c r="D15" s="8" t="s">
@@ -65001,7 +65063,7 @@
       <c r="B16" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="10" t="s">
         <v>70</v>
       </c>
       <c r="D16" s="8" t="s">
@@ -65022,7 +65084,7 @@
       <c r="B17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="10" t="s">
         <v>71</v>
       </c>
       <c r="D17" s="8" t="s">
@@ -65043,7 +65105,7 @@
       <c r="B18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="10" t="s">
         <v>72</v>
       </c>
       <c r="D18" s="8" t="s">
@@ -65064,7 +65126,7 @@
       <c r="B19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="10" t="s">
         <v>73</v>
       </c>
       <c r="D19" s="8" t="s">
@@ -65085,7 +65147,7 @@
       <c r="B20" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="10" t="s">
         <v>74</v>
       </c>
       <c r="D20" s="7"/>
@@ -65104,7 +65166,7 @@
       <c r="B21" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="10" t="s">
         <v>77</v>
       </c>
       <c r="D21" s="7"/>
@@ -65123,7 +65185,7 @@
       <c r="B22" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="10" t="s">
         <v>75</v>
       </c>
       <c r="D22" s="7"/>
@@ -65140,7 +65202,7 @@
       <c r="B23" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="10" t="s">
         <v>76</v>
       </c>
       <c r="D23" s="7"/>
@@ -65159,7 +65221,7 @@
       <c r="B24" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="10" t="s">
         <v>78</v>
       </c>
       <c r="D24" s="7"/>
@@ -65192,336 +65254,746 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I38"/>
+  <dimension ref="B2:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="21.08984375" customWidth="1"/>
-    <col min="3" max="3" width="32.81640625" customWidth="1"/>
-    <col min="4" max="4" width="22.54296875" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" customWidth="1"/>
+    <col min="2" max="2" width="28.90625" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" customWidth="1"/>
+    <col min="4" max="4" width="16.08984375" customWidth="1"/>
+    <col min="5" max="5" width="14.36328125" customWidth="1"/>
     <col min="6" max="6" width="11.1796875" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
     <col min="9" max="9" width="26.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D2" t="s">
         <v>82</v>
       </c>
-      <c r="E2">
-        <v>124940855</v>
-      </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B3" s="24" t="s">
-        <v>95</v>
-      </c>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D3" t="s">
         <v>83</v>
       </c>
-      <c r="E3">
-        <v>33340817</v>
-      </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D4" t="s">
         <v>84</v>
       </c>
-      <c r="E4">
-        <v>16647591</v>
-      </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B5" s="24" t="s">
-        <v>96</v>
-      </c>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D5" t="s">
         <v>85</v>
       </c>
-      <c r="E5">
-        <v>11703768</v>
-      </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D6" t="s">
         <v>86</v>
       </c>
-      <c r="E6">
-        <v>4943823</v>
-      </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="24" t="s">
-        <v>97</v>
-      </c>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B9" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="40"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="29" t="s">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B10" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="F9" s="29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C10" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="7">
-        <v>186249</v>
-      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="14"/>
       <c r="F10" s="7">
         <v>124940855</v>
       </c>
+      <c r="G10" s="41"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="7">
-        <v>72791</v>
-      </c>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B11" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="14"/>
       <c r="F11" s="7">
         <v>33340817</v>
       </c>
+      <c r="G11" s="41"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C12" s="26" t="s">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B12" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="E12" s="7">
-        <v>20945</v>
-      </c>
+      <c r="E12" s="15"/>
       <c r="F12" s="7">
         <v>11703768</v>
       </c>
+      <c r="G12" s="41"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B13" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13" s="7">
-        <v>6903</v>
-      </c>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B13" s="33"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="15"/>
       <c r="F13" s="7">
         <v>4943823</v>
       </c>
+      <c r="G13" s="41"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B14" s="24"/>
-      <c r="E14">
-        <f>SUM(E10:E13)</f>
-        <v>286888</v>
-      </c>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
       <c r="F14">
         <f>SUM(F10:F13)</f>
         <v>174929263</v>
       </c>
     </row>
-    <row r="17" spans="8:9" ht="101.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="8:9" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H18" s="30" t="s">
+    <row r="17" spans="2:9" ht="101.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="2:9" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H18" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="I18" s="31" t="s">
-        <v>101</v>
+      <c r="I18" s="18" t="s">
+        <v>94</v>
       </c>
     </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="G19" s="9"/>
       <c r="H19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="32">
+      <c r="I19" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H20" s="6" t="s">
+    <row r="20" spans="2:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="H20" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="I20" s="32">
+      <c r="I20" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H21" s="6" t="s">
+    <row r="21" spans="2:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="43"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="49"/>
+      <c r="F21" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="G21" s="35"/>
+      <c r="H21" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="33">
+      <c r="I21" s="20">
         <v>0.999</v>
       </c>
     </row>
-    <row r="22" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H22" s="6" t="s">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B22" s="43"/>
+      <c r="C22" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="H22" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="I22" s="33">
+      <c r="I22" s="20">
         <v>0.999</v>
       </c>
     </row>
-    <row r="23" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H23" s="6" t="s">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B23" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="39">
+        <v>2</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H23" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="I23" s="33">
+      <c r="I23" s="20">
         <v>0.999</v>
       </c>
     </row>
-    <row r="24" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H24" s="6" t="s">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B24" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="39">
+        <v>2</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="H24" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="33">
+      <c r="I24" s="20">
         <v>0.999</v>
       </c>
     </row>
-    <row r="25" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H25" s="6" t="s">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B25" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="39">
+        <v>2</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="H25" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="I25" s="33">
+      <c r="I25" s="20">
         <v>0.999</v>
       </c>
     </row>
-    <row r="26" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H26" s="6" t="s">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B26" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="39">
+        <v>2</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H26" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="I26" s="33">
+      <c r="I26" s="20">
         <v>0.999</v>
       </c>
     </row>
-    <row r="27" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H27" s="6" t="s">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B27" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="39">
+        <v>2</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H27" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="I27" s="33">
+      <c r="I27" s="20">
         <v>0.999</v>
       </c>
     </row>
-    <row r="28" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H28" s="6" t="s">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B28" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="39">
+        <v>2</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H28" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="33">
+      <c r="I28" s="20">
         <v>0.999</v>
       </c>
     </row>
-    <row r="29" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H29" s="6" t="s">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B29" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="39">
+        <v>3</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H29" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="I29" s="33">
+      <c r="I29" s="20">
         <v>0.999</v>
       </c>
     </row>
-    <row r="30" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H30" s="6" t="s">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B30" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="39">
+        <v>3</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G30" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="H30" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="I30" s="33">
+      <c r="I30" s="20">
         <v>0.999</v>
       </c>
     </row>
-    <row r="31" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H31" s="6" t="s">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B31" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" s="39">
+        <v>4</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H31" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="I31" s="33">
+      <c r="I31" s="20">
         <v>0.999</v>
       </c>
     </row>
-    <row r="32" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H32" s="6" t="s">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B32" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="39">
+        <v>2</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H32" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="I32" s="33">
+      <c r="I32" s="20">
         <v>0.999</v>
       </c>
     </row>
-    <row r="33" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H33" s="6" t="s">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B33" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="39">
+        <v>2</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H33" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="I33" s="33">
+      <c r="I33" s="20">
         <v>0.999</v>
       </c>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H34" s="6" t="s">
+    <row r="34" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="B34" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="39">
+        <v>3</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H34" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="I34" s="32">
+      <c r="I34" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H35" s="6" t="s">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B35" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="39">
+        <v>4</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H35" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="I35" s="32">
+      <c r="I35" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H36" s="6" t="s">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B36" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="39">
+        <v>3</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G36" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="H36" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="I36" s="32">
+      <c r="I36" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H37" s="6" t="s">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B37" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="39">
+        <v>3</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H37" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="I37" s="32">
+      <c r="I37" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H38" s="6" t="s">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B38" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="39">
         <v>1</v>
       </c>
-      <c r="I38" s="32">
+      <c r="D38" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G38" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" s="42" t="s">
         <v>1</v>
+      </c>
+      <c r="I38" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="B39" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="39">
+        <v>1</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G39" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B40" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" s="39">
+        <v>1</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F40" s="7"/>
+      <c r="G40" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B41" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" s="39">
+        <v>1</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G41" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="B42" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" s="39">
+        <v>1</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G42" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B43" s="50"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="50"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
+        <v>115</v>
+      </c>
+      <c r="C47" t="s">
+        <v>116</v>
+      </c>
+      <c r="D47" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
+  <mergeCells count="9">
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:E21"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="8.7265625" customWidth="1"/>
+  </cols>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
@@ -65540,10 +66012,10 @@
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="14"/>
+      <c r="C1" s="36"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
@@ -65781,7 +66253,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N64"/>
   <sheetViews>
@@ -65797,24 +66269,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="21"/>
       <c r="C1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -66307,7 +66779,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R21"/>
   <sheetViews>
